--- a/Chapter_04/Chapter_4_Table_S4.15.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127FBE22-A6D8-48FB-85EC-21957B040852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E56488B3-2A8D-4CA3-B9AB-D82F34054A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{D80A6425-7D8A-4A2D-B48B-48B1841DC3D5}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{7F51CD4A-AE0B-4CB4-96F6-4E660F8ECBCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.15" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,39 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="17">
   <si>
     <r>
-      <t xml:space="preserve">Supplementary Table S4.15: </t>
+      <t>Supplementary Table</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S4.15:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -107,10 +139,10 @@
     <t>P.adj.</t>
   </si>
   <si>
-    <t>Mcloughlin et al., (2014)</t>
-  </si>
-  <si>
-    <t>Pass 1</t>
+    <t>MCL14-BTB</t>
+  </si>
+  <si>
+    <t>13-gene set</t>
   </si>
   <si>
     <t>Control</t>
@@ -119,23 +151,23 @@
     <t>Infected</t>
   </si>
   <si>
-    <t>Pass 2</t>
-  </si>
-  <si>
-    <t>Combined</t>
-  </si>
-  <si>
-    <t>Mcloughlin et al., (2021)</t>
-  </si>
-  <si>
-    <t>O'Grady et al., (2025)</t>
+    <t>17-gene set</t>
+  </si>
+  <si>
+    <t>30-gene set</t>
+  </si>
+  <si>
+    <t>MCL21-BTB</t>
+  </si>
+  <si>
+    <t>OGR25-BTB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +179,21 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,11 +240,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -216,17 +264,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08C6D150-B63E-4768-B1AB-BAFEC0D417F0}" name="Table15" displayName="Table15" ref="A2:H11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{604C94CF-39C2-4667-AB69-B2556A235209}" name="Table15" displayName="Table15" ref="A2:H11" totalsRowShown="0">
   <autoFilter ref="A2:H11" xr:uid="{73E6AE85-8593-48EF-988F-5778DD179ADD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{55E7C1D1-52CF-4624-A1CC-1D9E489E6B0F}" name="Group"/>
-    <tableColumn id="2" xr3:uid="{5C1BDF4B-ADD2-4E70-8586-BB70A06AAB0B}" name="Gene set"/>
-    <tableColumn id="3" xr3:uid="{BE5410AB-261B-4B25-8EFC-64C015B07925}" name="Group 1"/>
-    <tableColumn id="4" xr3:uid="{37977BD6-E3DC-4E75-BF14-78D510B43CAD}" name="Group 2"/>
-    <tableColumn id="5" xr3:uid="{692262ED-8DD0-4522-A426-36B9B8E11E3F}" name="n1"/>
-    <tableColumn id="6" xr3:uid="{D628403C-8A24-472F-9F2C-C47C9C9F0EE5}" name="n2"/>
-    <tableColumn id="7" xr3:uid="{1BA0FCA1-7F93-4BF9-BFAD-06A9ED338581}" name="P"/>
-    <tableColumn id="8" xr3:uid="{4AEAE9F9-AF70-4B79-AEC6-0818C924B1F6}" name="P.adj."/>
+    <tableColumn id="1" xr3:uid="{2A6ACC6E-F970-409C-A4EA-A26234D545EA}" name="Group"/>
+    <tableColumn id="2" xr3:uid="{BD223F30-8F73-42CB-B330-369760299895}" name="Gene set"/>
+    <tableColumn id="3" xr3:uid="{B46EB110-5B80-4D49-83C2-238FEB795E75}" name="Group 1"/>
+    <tableColumn id="4" xr3:uid="{5C5DD773-7796-4D8B-905B-521F243B692B}" name="Group 2"/>
+    <tableColumn id="5" xr3:uid="{6E04E0DC-A073-4AA9-9D19-A0DCC69ACFBC}" name="n1"/>
+    <tableColumn id="6" xr3:uid="{FB4AD33E-3F8B-4956-B55F-17A131C0F5B3}" name="n2"/>
+    <tableColumn id="7" xr3:uid="{70655091-5B51-47AC-925D-1C30BE6905A6}" name="P"/>
+    <tableColumn id="8" xr3:uid="{8C72F9FA-8230-4607-B77D-CE641ABA6AF6}" name="P.adj."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,12 +596,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EF3FBA-A6FD-417C-B751-B9E54B713F69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D8472C-D11F-4387-801A-2D8DF0E34533}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +627,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -631,7 +679,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -657,7 +705,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -683,7 +731,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -703,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>1.72E-2</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="H6">
-        <v>2.58E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.1025E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -729,13 +777,13 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>2.4499999999999999E-3</v>
+        <v>9.7999999999999997E-3</v>
       </c>
       <c r="H7">
-        <v>4.4099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1.7639999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -758,10 +806,10 @@
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="H8">
-        <v>4.4099999999999999E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.3499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -781,13 +829,13 @@
         <v>17</v>
       </c>
       <c r="G9">
-        <v>7.2799999999999994E-5</v>
+        <v>1.54E-2</v>
       </c>
       <c r="H9">
-        <v>2.1800000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.3099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -807,13 +855,13 @@
         <v>17</v>
       </c>
       <c r="G10">
-        <v>4.6400000000000003E-5</v>
+        <v>1.4899999999999999E-4</v>
       </c>
       <c r="H10">
-        <v>2.0900000000000001E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.7049999999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -832,11 +880,11 @@
       <c r="F11">
         <v>17</v>
       </c>
-      <c r="G11">
-        <v>2.4700000000000001E-5</v>
+      <c r="G11" s="2">
+        <v>2.9E-5</v>
       </c>
       <c r="H11">
-        <v>2.0900000000000001E-4</v>
+        <v>2.61E-4</v>
       </c>
     </row>
   </sheetData>
